--- a/data/mapping_sheet.xlsx
+++ b/data/mapping_sheet.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Github Data upload\CT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddharth\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DE230DD-0A82-47D5-9ABC-70BCAD09094C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7455" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>DSA-Used-Cars(UCA)</t>
   </si>
@@ -100,97 +99,13 @@
     <t>typelead</t>
   </si>
   <si>
-    <t>Mitula</t>
-  </si>
-  <si>
-    <t>Ybing Sem</t>
-  </si>
-  <si>
-    <t>Adnetwork</t>
-  </si>
-  <si>
-    <t>Junglee</t>
-  </si>
-  <si>
-    <t>Rediff</t>
-  </si>
-  <si>
-    <t>vizury-adfunnel</t>
-  </si>
-  <si>
-    <t>Stream Ads</t>
-  </si>
-  <si>
-    <t>Yahoo Display</t>
-  </si>
-  <si>
-    <t>Justdial</t>
-  </si>
-  <si>
-    <t>Digiglitz</t>
-  </si>
-  <si>
-    <t>Shine</t>
-  </si>
-  <si>
-    <t>Icubeswire</t>
-  </si>
-  <si>
-    <t>Mgage</t>
-  </si>
-  <si>
-    <t>Leadsurf</t>
-  </si>
-  <si>
-    <t>iksula</t>
-  </si>
-  <si>
-    <t>Sociomantic</t>
-  </si>
-  <si>
-    <t>Icubeswire-Used-car-Search</t>
-  </si>
-  <si>
-    <t>Sensedigital</t>
-  </si>
-  <si>
-    <t>ShooglooMobile</t>
-  </si>
-  <si>
-    <t>Myuniverse</t>
-  </si>
-  <si>
-    <t>Buzzcity</t>
-  </si>
-  <si>
-    <t>Riemen</t>
-  </si>
-  <si>
-    <t>Ad2Click</t>
-  </si>
-  <si>
-    <t>FirstOption</t>
-  </si>
-  <si>
-    <t>Capitalfirst</t>
-  </si>
-  <si>
-    <t>notification</t>
-  </si>
-  <si>
-    <t>SEO - Yahoo Organic</t>
-  </si>
-  <si>
-    <t>SEO</t>
-  </si>
-  <si>
-    <t>SEO - Google Organic</t>
+    <t>App Lead</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -246,10 +161,38 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00D40746-446A-4035-97BD-91F6FA354526}"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -523,17 +466,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="B2" sqref="B2:B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -663,17 +606,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9856334-5AB1-4598-8A62-F1E8A782E620}">
-  <dimension ref="A1:B35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="24.21875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
@@ -685,274 +625,42 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>35</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>44</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>47</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>48</v>
-      </c>
-      <c r="B34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
